--- a/src/test/java/ru/fds/tavrzcms3/testdata/encumbrance_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/encumbrance_update.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>pledge_subject_id: 0</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>encumbrance_id: 0</t>
+  </si>
+  <si>
+    <t>в пользу кого 3</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +479,9 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
@@ -501,6 +507,9 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="2">
         <v>40858</v>
